--- a/data/trans_camb/IP16B04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B04-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,17 +616,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,17 +692,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B04-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1524,6 +1524,13 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A4:A7"/>

--- a/data/trans_camb/IP16B04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B04-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/IP16B04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B04-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -762,27 +762,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,24 +913,24 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -989,24 +989,24 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,24 +1069,24 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1306,12 +1306,12 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1369,170 +1369,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
